--- a/sample/test/deref/deref_test_1.xlsx
+++ b/sample/test/deref/deref_test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narongdejsrn/Projects/exco/sample/test/deref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EEB82D-2014-084B-9A7D-17F4AF227BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9C9C9-F124-4E48-958A-10CABF2F4372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="9020" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="27540" yWindow="8280" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>sum_val</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>wealth</t>
+  </si>
+  <si>
+    <t>no_deref</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -416,6 +419,14 @@
         <v>200</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>500</v>
